--- a/game/assets/i18n/main.xlsx
+++ b/game/assets/i18n/main.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/efe1273c8103e7e0/dev/Iso/Maquette/assets/i18n/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\aube\game\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{04E58DCF-57E5-4ED9-B029-E9B1B9F9A7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33D7EEB6-6BAE-42C5-B05D-C80B14D793AD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9B1C26-49B5-439C-BE26-FD2923DEAB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="130">
   <si>
     <t>clés</t>
   </si>
@@ -423,6 +423,9 @@
   </si>
   <si>
     <t>Quitter</t>
+  </si>
+  <si>
+    <t>Notifications</t>
   </si>
 </sst>
 </file>
@@ -475,10 +478,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -778,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,6 +1349,14 @@
         <v>128</v>
       </c>
     </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/game/assets/i18n/main.xlsx
+++ b/game/assets/i18n/main.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\aube\game\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9B1C26-49B5-439C-BE26-FD2923DEAB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32CE00D-7455-4ACE-8B51-88EA877A4D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="137">
   <si>
     <t>clés</t>
   </si>
@@ -426,6 +426,29 @@
   </si>
   <si>
     <t>Notifications</t>
+  </si>
+  <si>
+    <t>Inverted</t>
+  </si>
+  <si>
+    <t>Inversé</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Joypad and keyboard
+vertical axis</t>
+  </si>
+  <si>
+    <t>Axe vertical manette et clavier</t>
+  </si>
+  <si>
+    <t>Mouse
+vertical axis</t>
+  </si>
+  <si>
+    <t>Axe vertical  souris</t>
   </si>
 </sst>
 </file>
@@ -461,8 +484,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,6 +1383,38 @@
         <v>129</v>
       </c>
     </row>
+    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B75" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/game/assets/i18n/main.xlsx
+++ b/game/assets/i18n/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\aube\game\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32CE00D-7455-4ACE-8B51-88EA877A4D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE11B3D-BE02-48D9-9D77-9F78361D4D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -441,14 +441,16 @@
 vertical axis</t>
   </si>
   <si>
-    <t>Axe vertical manette et clavier</t>
-  </si>
-  <si>
     <t>Mouse
 vertical axis</t>
   </si>
   <si>
-    <t>Axe vertical  souris</t>
+    <t>Axe vertical
+manette et clavier</t>
+  </si>
+  <si>
+    <t>Axe vertical
+souris</t>
   </si>
 </sst>
 </file>
@@ -806,7 +808,7 @@
   <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,8 +1389,8 @@
       <c r="A72" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B72" t="s">
-        <v>134</v>
+      <c r="B72" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1409,9 +1411,9 @@
     </row>
     <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B75" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>136</v>
       </c>
     </row>

--- a/game/assets/i18n/main.xlsx
+++ b/game/assets/i18n/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\aube\game\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE11B3D-BE02-48D9-9D77-9F78361D4D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CDA5F9-660B-423B-B32E-592F23890C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -808,12 +808,12 @@
   <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+      <selection activeCell="A76" sqref="A76:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.140625" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/game/assets/i18n/main.xlsx
+++ b/game/assets/i18n/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\aube\game\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CDA5F9-660B-423B-B32E-592F23890C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8728E5E6-DA46-415E-A115-5017E157F585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="143">
   <si>
     <t>clés</t>
   </si>
@@ -451,6 +451,24 @@
   <si>
     <t>Axe vertical
 souris</t>
+  </si>
+  <si>
+    <t>Loading...</t>
+  </si>
+  <si>
+    <t>Chargement...</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>Continuer</t>
+  </si>
+  <si>
+    <t>New game</t>
+  </si>
+  <si>
+    <t>Nouvelle partie</t>
   </si>
 </sst>
 </file>
@@ -805,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:XFD77"/>
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,6 +1435,30 @@
         <v>136</v>
       </c>
     </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>137</v>
+      </c>
+      <c r="B76" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>141</v>
+      </c>
+      <c r="B78" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/game/assets/i18n/main.xlsx
+++ b/game/assets/i18n/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\aube\game\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8728E5E6-DA46-415E-A115-5017E157F585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B553E22-254F-4CFB-A5EE-94D7E52D4809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="143">
   <si>
     <t>clés</t>
   </si>
@@ -823,7 +823,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B79" sqref="B79"/>
@@ -1459,6 +1459,14 @@
         <v>142</v>
       </c>
     </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>126</v>
+      </c>
+      <c r="B79" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/game/assets/i18n/main.xlsx
+++ b/game/assets/i18n/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\aube\game\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B553E22-254F-4CFB-A5EE-94D7E52D4809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A2B11C-59CB-4B04-97E2-023F1BBEC482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="150">
   <si>
     <t>clés</t>
   </si>
@@ -469,6 +469,27 @@
   </si>
   <si>
     <t>Nouvelle partie</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Player creation</t>
+  </si>
+  <si>
+    <t>Création du personnage</t>
+  </si>
+  <si>
+    <t>Your name :</t>
+  </si>
+  <si>
+    <t>Votre nom :</t>
+  </si>
+  <si>
+    <t>Character :</t>
+  </si>
+  <si>
+    <t>Personnage :</t>
   </si>
 </sst>
 </file>
@@ -823,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,6 +1488,38 @@
         <v>125</v>
       </c>
     </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>146</v>
+      </c>
+      <c r="B82" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>148</v>
+      </c>
+      <c r="B83" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/game/assets/i18n/main.xlsx
+++ b/game/assets/i18n/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\aube\game\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A2B11C-59CB-4B04-97E2-023F1BBEC482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014287DB-01B4-4D57-94B1-96CA8CE9FD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="152">
   <si>
     <t>clés</t>
   </si>
@@ -490,6 +490,12 @@
   </si>
   <si>
     <t>Personnage :</t>
+  </si>
+  <si>
+    <t>You died !</t>
+  </si>
+  <si>
+    <t>Vous êtes mort !</t>
   </si>
 </sst>
 </file>
@@ -844,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,6 +1526,14 @@
         <v>149</v>
       </c>
     </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>150</v>
+      </c>
+      <c r="B84" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/game/assets/i18n/main.xlsx
+++ b/game/assets/i18n/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\aube\game\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014287DB-01B4-4D57-94B1-96CA8CE9FD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB41F177-382F-4C1E-A773-8DDDC7242117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="156">
   <si>
     <t>clés</t>
   </si>
@@ -496,6 +496,18 @@
   </si>
   <si>
     <t>Vous êtes mort !</t>
+  </si>
+  <si>
+    <t>Vous êtes morte !</t>
+  </si>
+  <si>
+    <t>YOU_DIED_M</t>
+  </si>
+  <si>
+    <t>YOU_DIED_F</t>
+  </si>
+  <si>
+    <t>en</t>
   </si>
 </sst>
 </file>
@@ -850,688 +862,1036 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.140625" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="str">
+        <f>A2</f>
+        <v>You have unread messages !</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B66" si="0">A3</f>
+        <v>Inventory</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>Messages</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Message</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>From</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>Subject</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Quests</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>Drop</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Hello !</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>94</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Bye</v>
+      </c>
+      <c r="C11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>58</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Weigth : %.2f</v>
+      </c>
+      <c r="C12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>How many ?</v>
+      </c>
+      <c r="C13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>Cancel</v>
+      </c>
+      <c r="C14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>Tools</v>
+      </c>
+      <c r="C15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>Clothes</v>
+      </c>
+      <c r="C16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>Consumables</v>
+      </c>
+      <c r="C17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>Miscellaneous</v>
+      </c>
+      <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>Quests</v>
+      </c>
+      <c r="C19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>Settings</v>
+      </c>
+      <c r="C20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>Language</v>
+      </c>
+      <c r="C21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>English</v>
+      </c>
+      <c r="C22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>French</v>
+      </c>
+      <c r="C23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>Apply</v>
+      </c>
+      <c r="C24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>40</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>Load</v>
+      </c>
+      <c r="C25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>Load a saved game</v>
+      </c>
+      <c r="C26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>[Auto save]</v>
+      </c>
+      <c r="C27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>44</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>Last save</v>
+      </c>
+      <c r="C28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>Save ?</v>
+      </c>
+      <c r="C29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>Save game before exiting ?</v>
+      </c>
+      <c r="C30" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>51</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="C31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="C32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>53</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>Trading</v>
+      </c>
+      <c r="C33" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>54</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>Buy</v>
+      </c>
+      <c r="C34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>57</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>Unit price : %.2f</v>
+      </c>
+      <c r="C35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>Inventory : %d credits</v>
+      </c>
+      <c r="C36" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>85</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>Inventory : %d credit</v>
+      </c>
+      <c r="C37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="C38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>64</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>You don't have enough credits</v>
+      </c>
+      <c r="C39" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>66</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>%d (%d credits)</v>
+      </c>
+      <c r="C40" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>73</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>my saved game</v>
+      </c>
+      <c r="C41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>68</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>Save</v>
+      </c>
+      <c r="C42" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>71</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>Save game</v>
+      </c>
+      <c r="C43" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>76</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>Overwrite existing save?</v>
+      </c>
+      <c r="C44" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>79</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>Delete</v>
+      </c>
+      <c r="C45" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>81</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>Delete ?</v>
+      </c>
+      <c r="C46" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>83</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>Delete saved game ' %s' ?</v>
+      </c>
+      <c r="C47" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>88</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>Nice to meet you</v>
+      </c>
+      <c r="C48" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>90</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>Thank you</v>
+      </c>
+      <c r="C49" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>89</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
+      <c r="C50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>93</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>Hello</v>
+      </c>
+      <c r="C51" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>97</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>Nevermind</v>
+      </c>
+      <c r="C52" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>101</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>Let's talk</v>
+      </c>
+      <c r="C53" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>102</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>Nice. Bye</v>
+      </c>
+      <c r="C54" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>99</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok, bye</v>
+      </c>
+      <c r="C55" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>104</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>[Give %s]</v>
+      </c>
+      <c r="C56" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>106</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>Crafting</v>
+      </c>
+      <c r="C57" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>108</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>Nothing happens with '%s'</v>
+      </c>
+      <c r="C58" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>110</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>Use</v>
+      </c>
+      <c r="C59" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>112</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>Craft</v>
+      </c>
+      <c r="C60" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>113</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>Remove</v>
+      </c>
+      <c r="C61" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>114</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>Make</v>
+      </c>
+      <c r="C62" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>116</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>Close</v>
+      </c>
+      <c r="C63" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>118</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>Transfer all</v>
+      </c>
+      <c r="C64" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>120</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>Transfer</v>
+      </c>
+      <c r="C65" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>40</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>Load</v>
+      </c>
+      <c r="C66" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>122</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" t="str">
+        <f t="shared" ref="B67:B83" si="1">A67</f>
+        <v>Menu</v>
+      </c>
+      <c r="C67" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>123</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
+        <v>Smartphone</v>
+      </c>
+      <c r="C68" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>126</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>Controls</v>
+      </c>
+      <c r="C69" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>127</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>Quit</v>
+      </c>
+      <c r="C70" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>129</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>Notifications</v>
+      </c>
+      <c r="C71" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>Joypad and keyboard
+vertical axis</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>132</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>Normal</v>
+      </c>
+      <c r="C73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>130</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>Inverted</v>
+      </c>
+      <c r="C74" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v>Mouse
+vertical axis</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>137</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>Loading...</v>
+      </c>
+      <c r="C76" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>139</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>Continue</v>
+      </c>
+      <c r="C77" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>141</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>New game</v>
+      </c>
+      <c r="C78" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>126</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v>Controls</v>
+      </c>
+      <c r="C79" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>143</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>Player</v>
+      </c>
+      <c r="C80" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>144</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>Player creation</v>
+      </c>
+      <c r="C81" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>146</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>Your name :</v>
+      </c>
+      <c r="C82" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>148</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>Character :</v>
+      </c>
+      <c r="C83" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>153</v>
+      </c>
+      <c r="B84" t="s">
         <v>150</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/game/assets/i18n/main.xlsx
+++ b/game/assets/i18n/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\aube\game\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB41F177-382F-4C1E-A773-8DDDC7242117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0A3277-4C2F-4D63-98DF-649135E0DE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -865,7 +865,7 @@
   <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
